--- a/result/atest_060_zernikemomentcalctime_GPU_NOC_CAC_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_NOC_CAC_25P_5K.xlsx
@@ -493,28 +493,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7662765490644678</v>
+        <v>0.8703834901122348</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5897329725958668</v>
+        <v>-0.6658581701018774</v>
       </c>
       <c r="F2" t="n">
-        <v>0.344862699508667</v>
+        <v>0.2933218479156494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.28468918800354</v>
+        <v>0.2186777591705322</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4989714622497559</v>
+        <v>0.6132457256317139</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7890055179595947</v>
+        <v>0.7287728786468506</v>
       </c>
       <c r="J2" t="n">
-        <v>1.141274213790894</v>
+        <v>1.054431676864624</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6117606163024902</v>
+        <v>0.581689977645874</v>
       </c>
     </row>
     <row r="3">
@@ -532,28 +532,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.223269432984659</v>
+        <v>1.559682455497309</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5057757286933016</v>
+        <v>-0.7613832339311043</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3451495170593262</v>
+        <v>0.1915662288665771</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6385719776153564</v>
+        <v>0.4381029605865479</v>
       </c>
       <c r="H3" t="n">
-        <v>1.10080361366272</v>
+        <v>0.9102835655212402</v>
       </c>
       <c r="I3" t="n">
-        <v>1.709258556365967</v>
+        <v>1.547872304916382</v>
       </c>
       <c r="J3" t="n">
-        <v>2.493362903594971</v>
+        <v>2.307487487792969</v>
       </c>
       <c r="K3" t="n">
-        <v>1.257429313659668</v>
+        <v>1.079062509536743</v>
       </c>
     </row>
     <row r="4">
@@ -571,28 +571,28 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.185924848990353</v>
+        <v>1.60779115468359</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2040816767625749</v>
+        <v>-0.5023005240829891</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7147135734558105</v>
+        <v>0.3421142101287842</v>
       </c>
       <c r="G4" t="n">
-        <v>1.18925666809082</v>
+        <v>0.8532755374908447</v>
       </c>
       <c r="H4" t="n">
-        <v>2.064772844314575</v>
+        <v>1.733357906341553</v>
       </c>
       <c r="I4" t="n">
-        <v>3.282270669937134</v>
+        <v>2.949627637863159</v>
       </c>
       <c r="J4" t="n">
-        <v>4.840498208999634</v>
+        <v>4.544339179992676</v>
       </c>
       <c r="K4" t="n">
-        <v>2.418302392959595</v>
+        <v>2.084542894363403</v>
       </c>
     </row>
     <row r="5">
@@ -610,28 +610,28 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.251336472220316</v>
+        <v>1.664052541173616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004873218975475808</v>
+        <v>-0.2806096433351233</v>
       </c>
       <c r="F5" t="n">
-        <v>1.149001836776733</v>
+        <v>0.565967321395874</v>
       </c>
       <c r="G5" t="n">
-        <v>2.028306245803833</v>
+        <v>1.488697528839111</v>
       </c>
       <c r="H5" t="n">
-        <v>3.615175247192383</v>
+        <v>3.095891714096069</v>
       </c>
       <c r="I5" t="n">
-        <v>5.810211181640625</v>
+        <v>5.334464550018311</v>
       </c>
       <c r="J5" t="n">
-        <v>8.63666033744812</v>
+        <v>8.191137313842773</v>
       </c>
       <c r="K5" t="n">
-        <v>4.247870969772339</v>
+        <v>3.735231685638428</v>
       </c>
     </row>
     <row r="6">
@@ -649,28 +649,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7140594950917111</v>
+        <v>0.6847388713949817</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9113958249990562</v>
+        <v>-0.9057106494749868</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1452596187591553</v>
+        <v>0.1502599716186523</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1633470058441162</v>
+        <v>0.1506431102752686</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2262275218963623</v>
+        <v>0.2399702072143555</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3393244743347168</v>
+        <v>0.3217239379882812</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4647970199584961</v>
+        <v>0.449479341506958</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2677911281585693</v>
+        <v>0.2624153137207031</v>
       </c>
     </row>
     <row r="7">
@@ -688,28 +688,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8992138826584717</v>
+        <v>0.93742705806565</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.003101254105535</v>
+        <v>-1.033638958807133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1197574138641357</v>
+        <v>0.1103825569152832</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1375272274017334</v>
+        <v>0.1358647346496582</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2442262172698975</v>
+        <v>0.2360465526580811</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3706772327423096</v>
+        <v>0.3513786792755127</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4793393611907959</v>
+        <v>0.4854066371917725</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2703054904937744</v>
+        <v>0.2638158321380615</v>
       </c>
     </row>
     <row r="8">
@@ -727,28 +727,28 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8252450758498779</v>
+        <v>1.047580433036724</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9365123220192043</v>
+        <v>-1.062973076876627</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1417996883392334</v>
+        <v>0.09854340553283691</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1457343101501465</v>
+        <v>0.1431012153625488</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2783968448638916</v>
+        <v>0.2685186862945557</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3649263381958008</v>
+        <v>0.3756246566772461</v>
       </c>
       <c r="J8" t="n">
-        <v>0.514240026473999</v>
+        <v>0.5131504535675049</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2890194416046142</v>
+        <v>0.2797876834869385</v>
       </c>
     </row>
     <row r="9">
@@ -766,28 +766,28 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7468853409644077</v>
+        <v>0.9107026281519084</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8405219244468404</v>
+        <v>-0.9545654773528409</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1705646514892578</v>
+        <v>0.1304233074188232</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1825799942016602</v>
+        <v>0.1600406169891357</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3166930675506592</v>
+        <v>0.2913045883178711</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4228239059448242</v>
+        <v>0.3970229625701904</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5372297763824463</v>
+        <v>0.5469405651092529</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3259782791137695</v>
+        <v>0.3051464080810547</v>
       </c>
     </row>
   </sheetData>
